--- a/biology/Zoologie/Couleuvre/Couleuvre.xlsx
+++ b/biology/Zoologie/Couleuvre/Couleuvre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Couleuvre est un nom vernaculaire ambigu désignant de nombreuses espèces de serpents généralement non venimeux[1], à la différence des vipères. La progéniture de la couleuvre est le couleuvreau.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Couleuvre est un nom vernaculaire ambigu désignant de nombreuses espèces de serpents généralement non venimeux, à la différence des vipères. La progéniture de la couleuvre est le couleuvreau.
 Les couleuvres appartiennent pour l'essentiel aux familles des Colubridae, des Dipsadidae, des Natricidae et des Lamprophiidae, ces familles étant autrefois rassemblées dans la seule famille des Colubridae. Mais d'autres noms français peuvent servir à désigner diverses espèces de ce vaste groupe : coronelles (genre Coronella),  serpents ratiers (traduction de l'anglais ratsnake désignant l'ancien genre Elaphe au sens large, Boiga, Ptyas et Spilotes entre autres), serpents volants (genre Chrysopelea), serpents rois (genre Lampropeltis), etc. De plus de nombreuses espèces de ce groupe n'ont pas de nom vernaculaire en français.
 Le terme « couleuvre » est aussi utilisé en Guyane pour désigner certains Boidae.
 </t>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot vient du latin coluber/colubra de sens analogue. Au sens figuré, il est employé pour une « insinuation malicieuse ou perfide », ou un désagrément imposé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot vient du latin coluber/colubra de sens analogue. Au sens figuré, il est employé pour une « insinuation malicieuse ou perfide », ou un désagrément imposé.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Faire la différence entre une couleuvre et une vipère</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les critères fréquemment employés pour différencier couleuvres et vipères en Europe occidentale ne sont pas toujours opérants. Les couleuvres ne possèdent pas toujours une tête ovale, elle peut être plus triangulaire, surtout à l'âge adulte, tandis que les vipères n'ont pas toujours une tête bien triangulaire (« la tête en V »). La coloration dorsale en zigzags, souvent attribuée aux vipères, est présente chez certaines couleuvres, en particulier chez la couleuvre vipérine, totalement inoffensive, qui ressemble beaucoup aux vipères, alors que ces motifs peuvent à l'inverse avoir tendance à disparaître chez certaines vipères. Les couleuvres ont, à partir du cloaque, une queue plus ou moins longue et effilée selon les espèces alors que les vipères ont une queue assez courte et plus distincte du corps, mais ce caractère n'est pas très appréciable chez une vipère assez mince. Les couleuvres ont neuf grosses écailles sur le dessus de la tête et des écailles supralabiales (écailles assez grandes formant les lèvres supérieures) qui bordent directement les yeux. Alors que la vipère aspic se démarque par de nombreuses petites écailles sur le dessus de la tête et une à deux rangées de petites écailles (appelées écailles sous-oculaires) entre l'œil et les écailles supralabiales. La vipère péliade et d'autres espèces proches ont des écailles plus grandes sur la tête et une seule rangée d'écailles entre l’œil et les écailles labiales. Les vipères ont généralement un museau retroussé, alors qu'il est arrondi chez les couleuvres. Tous ces caractères ne doivent donc pas être considérés comme fiables par les personnes qui ne sont pas accoutumées à les utiliser[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les critères fréquemment employés pour différencier couleuvres et vipères en Europe occidentale ne sont pas toujours opérants. Les couleuvres ne possèdent pas toujours une tête ovale, elle peut être plus triangulaire, surtout à l'âge adulte, tandis que les vipères n'ont pas toujours une tête bien triangulaire (« la tête en V »). La coloration dorsale en zigzags, souvent attribuée aux vipères, est présente chez certaines couleuvres, en particulier chez la couleuvre vipérine, totalement inoffensive, qui ressemble beaucoup aux vipères, alors que ces motifs peuvent à l'inverse avoir tendance à disparaître chez certaines vipères. Les couleuvres ont, à partir du cloaque, une queue plus ou moins longue et effilée selon les espèces alors que les vipères ont une queue assez courte et plus distincte du corps, mais ce caractère n'est pas très appréciable chez une vipère assez mince. Les couleuvres ont neuf grosses écailles sur le dessus de la tête et des écailles supralabiales (écailles assez grandes formant les lèvres supérieures) qui bordent directement les yeux. Alors que la vipère aspic se démarque par de nombreuses petites écailles sur le dessus de la tête et une à deux rangées de petites écailles (appelées écailles sous-oculaires) entre l'œil et les écailles supralabiales. La vipère péliade et d'autres espèces proches ont des écailles plus grandes sur la tête et une seule rangée d'écailles entre l’œil et les écailles labiales. Les vipères ont généralement un museau retroussé, alors qu'il est arrondi chez les couleuvres. Tous ces caractères ne doivent donc pas être considérés comme fiables par les personnes qui ne sont pas accoutumées à les utiliser.
 La seule différence fiable pour les débutants est que les couleuvres ont toutes (en Europe occidentale) des pupilles rondes, alors que les vipères ont des pupilles nettement verticales.
 			Couleuvre à collier.
 			Vipère péliade.
@@ -580,10 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Venin
-Bien que considérées comme non venimeuses pour l'homme, certaines couleuvres possèdent malgré tout des crochets à venin même si ce venin est nettement moins puissant que chez la plupart des autres serpents venimeux. Ces crochets, peu mobiles, sont situés au fond de la mâchoire supérieure et sont cannelés. Ils sont utilisés sur les proies prises dans la gueule de l'animal, et non pour mordre (exemple : la couleuvre de Montpellier)[réf. nécessaire].
-Légende des couleuvres qui tètent le lait
-L’ophiophobie est à l'origine de nombreuses légendes. Dans les campagnes, les couleuvres entreraient dans les étables pour s'enrouler autour du pied d'une vache afin d'atteindre ses mamelles et téter goulûment le lait[3]. Cette légende peut trouver sa source dans le fait que ces serpents trouvés dans l'étable finissent sous la bêche ou la fourche de l'éleveur, qui, en leur éclatant l'abdomen, dévoile un liquide blanchâtre évoquant le lait caillé (ce liquide correspond en fait au contenu cloacal blanchâtre et aux œufs blancs des femelles gravides). En réalité, les couleuvres pénètrent dans les étables pour la chaleur qui y règne, pour chasser les souris et éventuellement pour pondre leurs œufs dans le fumier chaud et humide[4].
+          <t>Venin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que considérées comme non venimeuses pour l'homme, certaines couleuvres possèdent malgré tout des crochets à venin même si ce venin est nettement moins puissant que chez la plupart des autres serpents venimeux. Ces crochets, peu mobiles, sont situés au fond de la mâchoire supérieure et sont cannelés. Ils sont utilisés sur les proies prises dans la gueule de l'animal, et non pour mordre (exemple : la couleuvre de Montpellier)[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -609,10 +628,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Couleuvres et l'homme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Légende des couleuvres qui tètent le lait</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ophiophobie est à l'origine de nombreuses légendes. Dans les campagnes, les couleuvres entreraient dans les étables pour s'enrouler autour du pied d'une vache afin d'atteindre ses mamelles et téter goulûment le lait. Cette légende peut trouver sa source dans le fait que ces serpents trouvés dans l'étable finissent sous la bêche ou la fourche de l'éleveur, qui, en leur éclatant l'abdomen, dévoile un liquide blanchâtre évoquant le lait caillé (ce liquide correspond en fait au contenu cloacal blanchâtre et aux œufs blancs des femelles gravides). En réalité, les couleuvres pénètrent dans les étables pour la chaleur qui y règne, pour chasser les souris et éventuellement pour pondre leurs œufs dans le fumier chaud et humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Couleuvre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couleuvre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>France métropolitaine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>En France métropolitaine une dizaine d'espèces de serpents sont communément appelées « couleuvres ». Ces espèces se répartissent dans au moins deux familles bien distinctes, voire une troisième si l'on considère les Natricinae comme une famille séparée des Colubridae.
 famille des Colubridae :
@@ -633,31 +691,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Couleuvre</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Couleuvre</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Couleuvre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couleuvre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Guyane</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>En Guyane, le terme « couleuvre » désigne généralement de gros serpents de la famille des Boidae :
 « couleuvres d'eau » - les espèces d'anacondas (Eunectes deschauenseei et Eunectes murinus)
@@ -665,38 +725,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Couleuvre</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Couleuvre</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>La Réunion</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>À La Réunion, les couleuvres ne sont pas venimeuses[6] :
-Lycodon aulicus
-Typhlops braminus</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -718,10 +746,46 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>La Réunion</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>À La Réunion, les couleuvres ne sont pas venimeuses :
+Lycodon aulicus
+Typhlops braminus</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Couleuvre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couleuvre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Suisse</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Couleuvres à collier - Natrix helvetica et Natrix natrix
 Couleuvre coronelle - Coronella austriaca
@@ -732,31 +796,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Couleuvre</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Couleuvre</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Couleuvre</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couleuvre</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Québec</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Le Québec compte huit espèces de couleuvres :
 Couleuvre à collier américaine - Diadophis punctatus edwardsii
@@ -770,31 +836,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Couleuvre</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Couleuvre</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Couleuvre</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Couleuvre</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Expressions</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>avaler des couleuvres : devoir faire ou accepter quelque chose que l’on ne veut pas.</t>
         </is>
